--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRIVATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA0D2CD-CDEC-488F-A661-98D0D8D8BB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA604B6-BF8B-4AA2-BB0E-7C3E382C0D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,13 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Education</t>
   </si>
@@ -48,7 +42,13 @@
     <t>Size</t>
   </si>
   <si>
-    <t>Sr_No.</t>
+    <t>Sr_No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Work</t>
   </si>
 </sst>
 </file>
@@ -99,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -107,6 +107,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,21 +429,21 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
@@ -452,10 +455,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
         <v>20</v>
@@ -467,10 +470,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
         <v>15</v>
@@ -479,10 +482,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C5" s="3">
         <v>20</v>
@@ -507,12 +510,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRIVATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA604B6-BF8B-4AA2-BB0E-7C3E382C0D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A611EE4F-2085-4854-AA4A-6DE50C0C0B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+    <sheetView zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -510,10 +510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,34 +546,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -581,12 +553,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>6</v>
+      </c>
+      <c r="C1">
+        <v>7</v>
+      </c>
+      <c r="D1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>